--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14505" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,14 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.9.6 第二周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP的首页的基本设计。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通用户的登录，注册和忘记密码功能用例（浏览功能）用例图。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,7 +125,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>APP的首页的基本框架设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页的框架细化设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计师的专辑管理，查看购买意向的功能用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户（客户）浏览资讯信息，浏览布料辅料信息，浏览品牌服装信息功能用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户（客户）的评论，点赞，收藏功能用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计师的作品管理的功能用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计师的作品发表的功能用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：所有同学都完成了任务，团队合作效率高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.11 第三周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请病假了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例修改和需求完善，总合设计界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页我的的框架基础设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页市集的框架基础设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页设计的框架基础设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页我的里面关于我的关注和收藏的框架基础设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页我的的框架详细设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页市集的框架详细设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页设计的框架详细设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页我的里面关于我的关注和收藏的框架详细设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与APP的首页设计导航栏的设计，总合设计界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与APP的首页我的里面的注册和登录界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 第三周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.18 第四周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页我的的里面的更多功能的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页布料详细的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页品牌详细的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论功能的界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页作品详细的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的首页活动详细的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 第四周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己前面所做的页面进行细化、修改和补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个任务一直持续到明天，任务完成，界面设计基本完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,13 +374,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,14 +426,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -592,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -607,20 +806,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -701,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -709,20 +908,20 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -743,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -755,10 +954,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -767,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -779,10 +978,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -791,10 +990,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -803,28 +1002,520 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>这个任务一直持续到明天，任务完成，界面设计基本完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,6 +436,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,9 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -791,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -806,12 +810,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1443,7 +1447,7 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
@@ -1455,7 +1459,7 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1"/>
       <c r="D59" s="11"/>
     </row>
@@ -1463,7 +1467,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1"/>
       <c r="D60" s="11"/>
     </row>
@@ -1471,7 +1475,7 @@
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1"/>
       <c r="D61" s="11"/>
     </row>
@@ -1479,7 +1483,7 @@
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="1"/>
       <c r="D62" s="11"/>
     </row>
@@ -1487,7 +1491,7 @@
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="1"/>
       <c r="D63" s="12"/>
     </row>
@@ -1497,25 +1501,106 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
+    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t>日期：2017.9.20 第四周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,12 +437,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,6 +446,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -798,7 +802,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -810,12 +814,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -912,12 +916,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1014,12 +1018,12 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1116,12 +1120,12 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1216,10 +1220,10 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1316,10 +1320,10 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1416,10 +1420,10 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -1447,11 +1451,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1459,47 +1463,47 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="11"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="11"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="11"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -1527,66 +1531,72 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="1"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="1"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="D58:D63"/>
@@ -1601,6 +1611,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,26 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目用例规约的修改和补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的设计页面的全面检查和细节处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个任务难度还是挺耗时间的，所以持续时间是到明天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的内容讨论和修改（任命桦峰为小组长，具体任务由他分配）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,6 +457,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,16 +469,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -799,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -916,12 +936,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1018,12 +1038,12 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1120,12 +1140,12 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1220,10 +1240,10 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1320,10 +1340,10 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1420,10 +1440,10 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -1451,11 +1471,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1463,47 +1483,47 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="10"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="10"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="10"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="11"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -1531,7 +1551,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1543,7 +1563,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1553,7 +1573,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1563,7 +1583,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1593,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="6"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1583,40 +1603,128 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="24">
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D76:D81"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,11 +301,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个任务难度还是挺耗时间的，所以持续时间是到明天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库的内容讨论和修改（任命桦峰为小组长，具体任务由他分配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个任务难度还是挺耗时间的，所以持续时间是到明天或者是后天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现阶段已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间紧迫，完成度60%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,6 +480,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -469,17 +492,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -819,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -834,12 +854,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1471,11 +1491,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1483,41 +1503,41 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="9"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="9"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="9"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="10"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
@@ -1551,7 +1571,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1563,7 +1583,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1593,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1583,7 +1603,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1593,7 +1613,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1603,7 +1623,7 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
@@ -1645,8 +1665,8 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="6" t="s">
-        <v>70</v>
+      <c r="D76" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -1657,41 +1677,41 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="9"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>71</v>
+      <c r="B78" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="9"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="9"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="9"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="10"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
@@ -1699,25 +1719,102 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
+    <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
+  <mergeCells count="28">
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D87:D90"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="B78:B81"/>
@@ -1725,6 +1822,23 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,22 @@
   </si>
   <si>
     <t>时间紧迫，完成度60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的设计页面的全面检查和细节处理，参与数据库物理模型的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库物理模型修改（任命桦峰为小组长，具体任务由他分配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目用例规约的修改和补充，需求的修改和补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,12 +493,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -500,6 +510,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -839,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -854,12 +870,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -956,12 +972,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1058,12 +1074,12 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1160,12 +1176,12 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1260,10 +1276,10 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1360,10 +1376,10 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1460,10 +1476,10 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -1491,11 +1507,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1503,47 +1519,47 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="11"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="11"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="11"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -1571,7 +1587,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1583,7 +1599,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1593,7 +1609,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1603,7 +1619,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1613,7 +1629,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1623,17 +1639,17 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -1665,7 +1681,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1677,47 +1693,47 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="11"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="11"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="11"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="11"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="12"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
@@ -1771,11 +1787,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1783,62 +1799,148 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="8"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="11"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="8"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="11"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="A91:D91"/>
+  <mergeCells count="32">
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="D76:D81"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A91:D91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="90">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,42 @@
   </si>
   <si>
     <t>日期：2017.9.27 第五周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.10 第七周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌类接口文档设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯活动类接口文档设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计类接口文档设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通用户类接口文档设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料辅料类接口文档设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间持续到第八周星期三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +517,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,15 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -514,8 +541,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -855,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -972,12 +1017,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1074,12 +1119,12 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1176,12 +1221,12 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1276,10 +1321,10 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1376,10 +1421,10 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1476,10 +1521,10 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -1507,11 +1552,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1519,47 +1564,47 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="9"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="9"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="9"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="10"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -1587,7 +1632,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1599,7 +1644,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1609,7 +1654,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1619,7 +1664,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1629,7 +1674,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="6"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1639,17 +1684,17 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -1681,7 +1726,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1693,47 +1738,47 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="9"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="9"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="6"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="9"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="6"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="9"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="10"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
@@ -1787,11 +1832,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1799,31 +1844,31 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="6"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="9"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="6"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="9"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="10"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -1854,7 +1899,9 @@
       <c r="B94" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -1864,83 +1911,186 @@
       <c r="B95" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="8"/>
+      <c r="C96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D76:D81"/>
+  <mergeCells count="35">
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D76:D81"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="D58:D63"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D103:D108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,7 +377,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间持续到第八周星期三</t>
+    <t>时间持续到第八周星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第八周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴于昨天的文档还有一些方面需要修改，所以今天的任务还是完善文档。关于这个周末的时间安排是学习HTML5和CSS3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +534,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,21 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103:D108"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112:D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -915,20 +923,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1017,20 +1025,20 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1119,20 +1127,20 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1221,20 +1229,20 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1321,18 +1329,18 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1421,18 +1429,18 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -1521,18 +1529,18 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -1552,11 +1560,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1564,55 +1572,55 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="7"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -1632,7 +1640,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1644,7 +1652,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1654,7 +1662,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1664,7 +1672,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1674,7 +1682,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1684,25 +1692,25 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
@@ -1726,7 +1734,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1738,55 +1746,55 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="7"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1832,11 +1840,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1844,39 +1852,39 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="7"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -1920,57 +1928,57 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -2049,13 +2057,125 @@
       <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="12"/>
+    </row>
+    <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="38">
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D76:D81"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -2072,25 +2192,6 @@
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="D103:D108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="101">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,40 @@
   </si>
   <si>
     <t>鉴于昨天的文档还有一些方面需要修改，所以今天的任务还是完善文档。关于这个周末的时间安排是学习HTML5和CSS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢梓哲</t>
+  </si>
+  <si>
+    <t>杨喜燕</t>
+  </si>
+  <si>
+    <t>谭惠凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端组，组长：谭惠凡。负责完成APP界面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端组，组长：谭剑成。负责完成后台和数据接入的代码编写。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更加详细的计划需要各位组长分别分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.23 第九周 周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,21 +567,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,6 +580,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,6 +600,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -908,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112:D117"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -923,20 +966,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1025,20 +1068,20 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1127,20 +1170,20 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1229,20 +1272,20 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1329,18 +1372,18 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1429,18 +1472,18 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -1529,18 +1572,18 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -1560,11 +1603,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1572,55 +1615,55 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="11"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="11"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="11"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -1640,7 +1683,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1652,7 +1695,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="5"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +1705,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="5"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1672,7 +1715,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1682,7 +1725,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1692,25 +1735,25 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="6"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
@@ -1734,7 +1777,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1746,55 +1789,55 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="11"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="11"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="5"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="11"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="5"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="11"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="12"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1840,11 +1883,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1852,39 +1895,39 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="11"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="11"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="6"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -1928,57 +1971,57 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="10"/>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="5"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="11"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="6"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="12"/>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -2002,7 +2045,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2014,7 +2057,7 @@
         <v>84</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="14"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -2024,7 +2067,7 @@
         <v>88</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="14"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -2034,7 +2077,7 @@
         <v>87</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="14"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2044,7 +2087,7 @@
         <v>86</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="14"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -2054,21 +2097,21 @@
         <v>85</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="15"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
@@ -2091,8 +2134,10 @@
       <c r="B112" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="10" t="s">
+      <c r="C112" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2103,8 +2148,10 @@
       <c r="B113" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="11"/>
+      <c r="C113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2113,8 +2160,10 @@
       <c r="B114" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="11"/>
+      <c r="C114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -2123,8 +2172,10 @@
       <c r="B115" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="11"/>
+      <c r="C115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
@@ -2133,8 +2184,10 @@
       <c r="B116" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="11"/>
+      <c r="C116" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
@@ -2143,39 +2196,106 @@
       <c r="B117" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="12"/>
+      <c r="C117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D76:D81"/>
+  <mergeCells count="43">
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="D121:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B121:B123"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -2192,6 +2312,28 @@
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="107">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t>日期：2017.10.23 第九周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 第九周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台mybatisd的操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码页面的代码编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,6 +608,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +624,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,18 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -951,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:D119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1603,7 +1627,7 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
@@ -1615,7 +1639,7 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="1"/>
       <c r="D59" s="6"/>
     </row>
@@ -1623,7 +1647,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="1"/>
       <c r="D60" s="6"/>
     </row>
@@ -1631,7 +1655,7 @@
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="1"/>
       <c r="D61" s="6"/>
     </row>
@@ -1639,7 +1663,7 @@
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="1"/>
       <c r="D62" s="6"/>
     </row>
@@ -1647,7 +1671,7 @@
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="7"/>
     </row>
@@ -1683,7 +1707,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1695,7 +1719,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1705,7 +1729,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1715,7 +1739,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1725,7 +1749,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1735,7 +1759,7 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +1801,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1795,7 +1819,7 @@
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
@@ -1805,7 +1829,7 @@
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="1"/>
       <c r="D79" s="6"/>
     </row>
@@ -1813,7 +1837,7 @@
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="1"/>
       <c r="D80" s="6"/>
     </row>
@@ -1821,7 +1845,7 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="1"/>
       <c r="D81" s="7"/>
     </row>
@@ -1883,7 +1907,7 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
@@ -1895,7 +1919,7 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6"/>
     </row>
@@ -1903,7 +1927,7 @@
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6"/>
     </row>
@@ -1911,7 +1935,7 @@
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="1"/>
       <c r="D90" s="7"/>
     </row>
@@ -1971,7 +1995,7 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -1983,7 +2007,7 @@
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
@@ -1993,7 +2017,7 @@
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
@@ -2003,7 +2027,7 @@
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
@@ -2045,7 +2069,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2057,7 +2081,7 @@
         <v>84</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="13"/>
+      <c r="D104" s="17"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -2067,7 +2091,7 @@
         <v>88</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -2077,7 +2101,7 @@
         <v>87</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="13"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2087,7 +2111,7 @@
         <v>86</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -2097,7 +2121,7 @@
         <v>85</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="14"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
@@ -2233,7 +2257,7 @@
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C121" s="1"/>
@@ -2245,7 +2269,7 @@
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="17"/>
+      <c r="B122" s="10"/>
       <c r="C122" s="1"/>
       <c r="D122" s="6"/>
     </row>
@@ -2253,7 +2277,7 @@
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="18"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="1"/>
       <c r="D123" s="6"/>
     </row>
@@ -2261,7 +2285,7 @@
       <c r="A124" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C124" s="1"/>
@@ -2271,7 +2295,7 @@
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="17"/>
+      <c r="B125" s="10"/>
       <c r="C125" s="1"/>
       <c r="D125" s="6"/>
     </row>
@@ -2279,7 +2303,7 @@
       <c r="A126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="18"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="1"/>
       <c r="D126" s="7"/>
     </row>
@@ -2289,13 +2313,120 @@
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
     </row>
+    <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="D121:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B121:B123"/>
+  <mergeCells count="45">
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D76:D81"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -2312,28 +2443,11 @@
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="D121:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B121:B123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="114">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,34 @@
   </si>
   <si>
     <t>忘记密码页面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页页面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页界面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页页面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台mybatisd的操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的建表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为模型导入失败了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,6 +623,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -603,18 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -625,9 +644,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,6 +652,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -975,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:D128"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1092,12 +1120,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1194,12 +1222,12 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1296,12 +1324,12 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1396,10 +1424,10 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1496,10 +1524,10 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1596,10 +1624,10 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -1627,11 +1655,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1639,47 +1667,47 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="7"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -1707,7 +1735,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1719,7 +1747,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1729,7 +1757,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1739,7 +1767,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1749,7 +1777,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1759,17 +1787,17 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="14"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -1801,7 +1829,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1813,47 +1841,47 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="14"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="7"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
@@ -1907,11 +1935,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1919,31 +1947,31 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="13"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="14"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="7"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -1995,49 +2023,49 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="13"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="14"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -2069,7 +2097,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2081,7 +2109,7 @@
         <v>84</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="17"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -2091,7 +2119,7 @@
         <v>88</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="17"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -2101,7 +2129,7 @@
         <v>87</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="17"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2111,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="17"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -2121,13 +2149,13 @@
         <v>85</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="18"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
@@ -2161,7 +2189,7 @@
       <c r="C112" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2175,7 +2203,7 @@
       <c r="C113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2187,7 +2215,7 @@
       <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="6"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -2199,7 +2227,7 @@
       <c r="C115" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
@@ -2211,7 +2239,7 @@
       <c r="C116" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
@@ -2223,13 +2251,13 @@
       <c r="C117" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -2257,11 +2285,11 @@
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2269,49 +2297,49 @@
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="10"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="6"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="11"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="6"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="10"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="6"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="11"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="7"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
@@ -2396,37 +2424,105 @@
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D76:D81"/>
+  <mergeCells count="47">
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -2443,6 +2539,30 @@
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="A118:D118"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="D121:D126"/>
     <mergeCell ref="A127:D127"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -459,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台mybatisd的操作数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库的建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,6 +468,10 @@
   </si>
   <si>
     <t>日期：2017.10.25 第九周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台mybatisd的操作数据库的学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,6 +626,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,15 +645,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -652,9 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:D137"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1018,12 +1018,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1655,11 +1655,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1667,41 +1667,41 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="7"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="7"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="7"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="7"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
@@ -1735,7 +1735,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1747,7 +1747,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1841,41 +1841,41 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="7"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="7"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="7"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="7"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
@@ -1935,11 +1935,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1947,25 +1947,25 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="7"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="7"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
@@ -2023,43 +2023,43 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
@@ -2097,7 +2097,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
         <v>84</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="13"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -2119,7 +2119,7 @@
         <v>88</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -2129,7 +2129,7 @@
         <v>87</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="13"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2139,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -2149,7 +2149,7 @@
         <v>85</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="14"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
@@ -2189,7 +2189,7 @@
       <c r="C112" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       <c r="C113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2215,7 +2215,7 @@
       <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="11"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -2227,7 +2227,7 @@
       <c r="C115" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
@@ -2239,7 +2239,7 @@
       <c r="C116" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
@@ -2251,7 +2251,7 @@
       <c r="C117" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="8"/>
+      <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
@@ -2289,7 +2289,7 @@
         <v>98</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B122" s="17"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="7"/>
+      <c r="D122" s="11"/>
     </row>
     <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="7"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
@@ -2317,7 +2317,7 @@
         <v>97</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="7"/>
+      <c r="D124" s="11"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="7"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="8"/>
+      <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2456,29 +2456,29 @@
         <v>6</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -2521,6 +2521,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="D121:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="B87:B90"/>
@@ -2537,37 +2568,6 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D87:D90"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="D121:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B121:B123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,34 @@
   </si>
   <si>
     <t>后台mybatisd的操作数据库的学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.30 第十周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库已经建好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台mybatisd的注册接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台mybatisd的登录接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页界面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录代码已经写完，首页界面代码有点复杂，这边没有细分，计算这个星期弄好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台的规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,6 +654,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -637,15 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1018,12 +1046,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1655,11 +1683,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1667,41 +1695,41 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="11"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="11"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="11"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
@@ -1735,7 +1763,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1747,7 +1775,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1757,7 +1785,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1767,7 +1795,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +1805,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1787,7 +1815,7 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
@@ -1829,7 +1857,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1841,41 +1869,41 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="11"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="11"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="11"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="11"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="12"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
@@ -1935,11 +1963,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1947,25 +1975,25 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="11"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="11"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="8"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
@@ -2023,43 +2051,43 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="10"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="7"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="11"/>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="8"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="12"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
@@ -2189,7 +2217,7 @@
       <c r="C112" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2203,7 +2231,7 @@
       <c r="C113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D113" s="11"/>
+      <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2215,7 +2243,7 @@
       <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="11"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -2227,7 +2255,7 @@
       <c r="C115" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="11"/>
+      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
@@ -2239,7 +2267,7 @@
       <c r="C116" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D116" s="11"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
@@ -2251,7 +2279,7 @@
       <c r="C117" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="12"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
@@ -2289,7 +2317,7 @@
         <v>98</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2299,7 +2327,7 @@
       </c>
       <c r="B122" s="17"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="11"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
@@ -2307,7 +2335,7 @@
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="11"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
@@ -2317,7 +2345,7 @@
         <v>97</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="11"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
@@ -2325,7 +2353,7 @@
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="11"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
@@ -2333,7 +2361,7 @@
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="12"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
@@ -2519,8 +2547,96 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
+    <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="51">
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="A110:D110"/>
@@ -2538,8 +2654,11 @@
     <mergeCell ref="D96:D99"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="D103:D108"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
     <mergeCell ref="D76:D81"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -2547,13 +2666,6 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -2568,6 +2680,14 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D87:D90"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="124">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,18 @@
   </si>
   <si>
     <t>后台的规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续昨天的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划还没有做好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第十周 周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,6 +676,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,14 +702,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1031,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1046,12 +1058,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1683,7 +1695,7 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
@@ -1695,7 +1707,7 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="1"/>
       <c r="D59" s="7"/>
     </row>
@@ -1703,7 +1715,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="1"/>
       <c r="D60" s="7"/>
     </row>
@@ -1711,7 +1723,7 @@
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
     </row>
@@ -1719,7 +1731,7 @@
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="1"/>
       <c r="D62" s="7"/>
     </row>
@@ -1727,7 +1739,7 @@
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="8"/>
     </row>
@@ -1763,7 +1775,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1775,7 +1787,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1785,7 +1797,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1795,7 +1807,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1805,7 +1817,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1815,7 +1827,7 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1875,7 +1887,7 @@
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
@@ -1885,7 +1897,7 @@
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="1"/>
       <c r="D79" s="7"/>
     </row>
@@ -1893,7 +1905,7 @@
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="1"/>
       <c r="D80" s="7"/>
     </row>
@@ -1901,7 +1913,7 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="1"/>
       <c r="D81" s="8"/>
     </row>
@@ -1963,7 +1975,7 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
@@ -1975,7 +1987,7 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="1"/>
       <c r="D88" s="7"/>
     </row>
@@ -1983,7 +1995,7 @@
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="1"/>
       <c r="D89" s="7"/>
     </row>
@@ -1991,7 +2003,7 @@
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="1"/>
       <c r="D90" s="8"/>
     </row>
@@ -2051,7 +2063,7 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2063,7 +2075,7 @@
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
@@ -2073,7 +2085,7 @@
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
@@ -2083,7 +2095,7 @@
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2137,7 +2149,7 @@
         <v>84</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="14"/>
+      <c r="D104" s="16"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -2147,7 +2159,7 @@
         <v>88</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="14"/>
+      <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -2157,7 +2169,7 @@
         <v>87</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="14"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2167,7 +2179,7 @@
         <v>86</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="14"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -2177,7 +2189,7 @@
         <v>85</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="15"/>
+      <c r="D108" s="17"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
@@ -2313,7 +2325,7 @@
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C121" s="1"/>
@@ -2325,7 +2337,7 @@
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="17"/>
+      <c r="B122" s="10"/>
       <c r="C122" s="1"/>
       <c r="D122" s="7"/>
     </row>
@@ -2333,7 +2345,7 @@
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="18"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="1"/>
       <c r="D123" s="7"/>
     </row>
@@ -2341,7 +2353,7 @@
       <c r="A124" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C124" s="1"/>
@@ -2351,7 +2363,7 @@
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="17"/>
+      <c r="B125" s="10"/>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
     </row>
@@ -2359,7 +2371,7 @@
       <c r="A126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="18"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="1"/>
       <c r="D126" s="8"/>
     </row>
@@ -2605,7 +2617,7 @@
       <c r="A151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C151" s="1"/>
@@ -2617,7 +2629,7 @@
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="10"/>
+      <c r="B152" s="13"/>
       <c r="C152" s="1"/>
       <c r="D152" s="7"/>
     </row>
@@ -2625,7 +2637,7 @@
       <c r="A153" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B153" s="11"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="1"/>
       <c r="D153" s="8"/>
     </row>
@@ -2635,37 +2647,110 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
+    <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="13"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B162" s="14"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="8"/>
+    </row>
+    <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="D121:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A74:D74"/>
+  <mergeCells count="55">
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -2682,12 +2767,35 @@
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="D121:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B121:B123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="126">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,14 @@
   </si>
   <si>
     <t>日期：2017.10.31 第十周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天由于毕业照原因，基本没有写规划。今天继续未完成的工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +659,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +712,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1043,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:D155"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2739,8 +2750,104 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
+    <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="13"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B171" s="14"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="59">
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="A172:D172"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="B160:B162"/>
     <mergeCell ref="D160:D162"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="132">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,6 +520,30 @@
   </si>
   <si>
     <t>昨天由于毕业照原因，基本没有写规划。今天继续未完成的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第十一周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的用户接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的界面的代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +693,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,6 +716,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -691,15 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,9 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1054,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1069,20 +1093,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1171,20 +1195,20 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1273,20 +1297,20 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1375,20 +1399,20 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1475,18 +1499,18 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1575,18 +1599,18 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -1675,18 +1699,18 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -1706,11 +1730,11 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1718,55 +1742,55 @@
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="7"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="7"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="7"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="7"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -1786,7 +1810,7 @@
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1798,7 +1822,7 @@
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1808,7 +1832,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1818,7 +1842,7 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
@@ -1828,7 +1852,7 @@
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
@@ -1838,25 +1862,25 @@
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="14"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
@@ -1880,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1892,55 +1916,55 @@
         <v>69</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="7"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="7"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="7"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="7"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="14"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1986,11 +2010,11 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1998,39 +2022,39 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="7"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="13"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="7"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="14"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2074,57 +2098,57 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="13"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="14"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -2148,7 +2172,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2160,7 +2184,7 @@
         <v>84</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="16"/>
+      <c r="D104" s="17"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -2170,7 +2194,7 @@
         <v>88</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="16"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -2180,7 +2204,7 @@
         <v>87</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="16"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2190,7 +2214,7 @@
         <v>86</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="16"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -2200,21 +2224,21 @@
         <v>85</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="17"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
@@ -2240,7 +2264,7 @@
       <c r="C112" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2254,7 +2278,7 @@
       <c r="C113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2266,7 +2290,7 @@
       <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -2278,7 +2302,7 @@
       <c r="C115" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="10"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
@@ -2290,7 +2314,7 @@
       <c r="C116" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
@@ -2302,21 +2326,21 @@
       <c r="C117" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="8"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
@@ -2336,11 +2360,11 @@
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2348,57 +2372,57 @@
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="10"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="7"/>
+      <c r="D122" s="10"/>
     </row>
     <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="11"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="7"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="7"/>
+      <c r="D124" s="10"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="10"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="7"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="11"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="8"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
@@ -2475,18 +2499,18 @@
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
@@ -2565,18 +2589,18 @@
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
@@ -2628,11 +2652,11 @@
       <c r="A151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2640,31 +2664,31 @@
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="13"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="7"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B153" s="14"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="8"/>
+      <c r="D153" s="11"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
@@ -2720,11 +2744,11 @@
       <c r="A160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2732,31 +2756,31 @@
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B161" s="13"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="7"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B162" s="14"/>
+      <c r="B162" s="8"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="8"/>
+      <c r="D162" s="11"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
@@ -2779,8 +2803,10 @@
       <c r="B166" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="19" t="s">
+      <c r="C166" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2791,7 +2817,9 @@
       <c r="B167" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C167" s="1"/>
+      <c r="C167" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D167" s="1" t="s">
         <v>121</v>
       </c>
@@ -2803,7 +2831,9 @@
       <c r="B168" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C168" s="1"/>
+      <c r="C168" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D168" s="1" t="s">
         <v>121</v>
       </c>
@@ -2812,11 +2842,13 @@
       <c r="A169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C169" s="1"/>
-      <c r="D169" s="6" t="s">
+      <c r="C169" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D169" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2824,40 +2856,115 @@
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="10"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B171" s="14"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="11"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="10"/>
+    </row>
+    <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B180" s="8"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="A172:D172"/>
+  <mergeCells count="64">
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="B160:B162"/>
     <mergeCell ref="D160:D162"/>
     <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="C169:C171"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -2886,23 +2993,37 @@
     <mergeCell ref="B58:B63"/>
     <mergeCell ref="D76:D81"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="B96:B99"/>
     <mergeCell ref="D96:D99"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="D103:D108"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="D112:D117"/>
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="D121:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="A172:D172"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第六组/第六小组计划实施表.xlsx
+++ b/第六组/第六小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="132">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,7 +543,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>备注：老师，我们组的计划书都交给你了，这里就不细写了。然后我们按照我们计划书来赶进度。我会时刻跟进的，每个星期三下午放学都向你汇报一下进度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +617,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -677,13 +677,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,6 +801,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1078,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2817,9 +2901,7 @@
       <c r="B167" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
         <v>121</v>
       </c>
@@ -2831,9 +2913,7 @@
       <c r="B168" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
         <v>121</v>
       </c>
@@ -2845,9 +2925,7 @@
       <c r="B169" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C169" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="C169" s="1"/>
       <c r="D169" s="9" t="s">
         <v>119</v>
       </c>
@@ -2857,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="B170" s="7"/>
-      <c r="C170" s="17"/>
+      <c r="C170" s="1"/>
       <c r="D170" s="10"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2865,7 +2943,7 @@
         <v>94</v>
       </c>
       <c r="B171" s="8"/>
-      <c r="C171" s="18"/>
+      <c r="C171" s="1"/>
       <c r="D171" s="11"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2952,11 +3030,26 @@
       <c r="C180" s="1"/>
       <c r="D180" s="11"/>
     </row>
-    <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+    </row>
+    <row r="182" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="24"/>
+    </row>
+    <row r="184" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="25"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -2964,7 +3057,7 @@
     <mergeCell ref="B160:B162"/>
     <mergeCell ref="D160:D162"/>
     <mergeCell ref="A163:D163"/>
-    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="A183:D184"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A1:D1"/>
